--- a/data/dept/SQ.xlsx
+++ b/data/dept/SQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\AUP Automata\data\dept\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C2DA64-F639-4C90-BDFB-3C993033564D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8426BE6-9485-47F0-8311-229658BDB118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="123">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="122">
   <si>
     <t>Department</t>
   </si>
@@ -37,7 +34,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>System1</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>Square</t>
@@ -127,9 +124,6 @@
     <t>2hpfubxe2yfhz148g</t>
   </si>
   <si>
-    <t>sx5pfcat8znnx5hxe</t>
-  </si>
-  <si>
     <t>vs2z87tj2ybn23sx3</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>Anne Case</t>
   </si>
   <si>
-    <t>Andrew Martin</t>
-  </si>
-  <si>
     <t>Marissa Payne</t>
   </si>
   <si>
@@ -259,15 +250,18 @@
     <t>KLSE</t>
   </si>
   <si>
+    <t>LSE1</t>
+  </si>
+  <si>
+    <t>SHEET1</t>
+  </si>
+  <si>
     <t>NYSE</t>
   </si>
   <si>
     <t>SGX</t>
   </si>
   <si>
-    <t>SSE</t>
-  </si>
-  <si>
     <t>TSE</t>
   </si>
   <si>
@@ -281,6 +275,23 @@
   </si>
   <si>
     <t>Please select dropdown</t>
+  </si>
+  <si>
+    <r>
+      <t>System</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Submitted by: </t>
@@ -857,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,12 +887,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H2" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -900,24 +911,24 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
-        <v>65</v>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -926,14 +937,12 @@
         <v>7</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
     </row>
@@ -941,24 +950,22 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
-        <v>66</v>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="11"/>
     </row>
@@ -966,24 +973,22 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
-        <v>67</v>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
     </row>
@@ -991,24 +996,22 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>68</v>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
     </row>
@@ -1016,8 +1019,8 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
-        <v>428</v>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>6</v>
@@ -1026,14 +1029,12 @@
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
     </row>
@@ -1041,24 +1042,22 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>429</v>
+      <c r="B9" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
     </row>
@@ -1066,24 +1065,22 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
-        <v>430</v>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
     </row>
@@ -1091,24 +1088,22 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <v>431</v>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
     </row>
@@ -1116,24 +1111,22 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
-        <v>432</v>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
     </row>
@@ -1141,24 +1134,22 @@
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
-        <v>433</v>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
     </row>
@@ -1166,24 +1157,22 @@
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
-        <v>434</v>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
     </row>
@@ -1191,24 +1180,22 @@
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
-        <v>435</v>
+      <c r="B15" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
     </row>
@@ -1216,24 +1203,22 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="10">
-        <v>436</v>
+      <c r="B16" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
     </row>
@@ -1241,24 +1226,22 @@
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
-        <v>437</v>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
@@ -1266,24 +1249,22 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
-        <v>438</v>
+      <c r="B18" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
     </row>
@@ -1291,24 +1272,22 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
-        <v>439</v>
+      <c r="B19" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
@@ -1316,24 +1295,22 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="10">
-        <v>440</v>
+      <c r="B20" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="11"/>
     </row>
@@ -1341,24 +1318,22 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
-        <v>441</v>
+      <c r="B21" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11"/>
     </row>
@@ -1366,24 +1341,22 @@
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="10">
-        <v>442</v>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
     </row>
@@ -1391,24 +1364,22 @@
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="10">
-        <v>443</v>
+      <c r="B23" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
     </row>
@@ -1416,24 +1387,22 @@
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="10">
-        <v>444</v>
+      <c r="B24" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11"/>
     </row>
@@ -1441,24 +1410,22 @@
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="10">
-        <v>445</v>
+      <c r="B25" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
     </row>
@@ -1466,24 +1433,22 @@
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="10">
-        <v>446</v>
+      <c r="B26" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11"/>
     </row>
@@ -1491,8 +1456,8 @@
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="10">
-        <v>1120</v>
+      <c r="B27" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>6</v>
@@ -1501,14 +1466,12 @@
         <v>7</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="11"/>
     </row>
@@ -1516,24 +1479,22 @@
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="10">
-        <v>1121</v>
+      <c r="B28" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
     </row>
@@ -1541,24 +1502,22 @@
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="10">
-        <v>1122</v>
+      <c r="B29" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
     </row>
@@ -1566,24 +1525,22 @@
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="10">
-        <v>1123</v>
+      <c r="B30" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
     </row>
@@ -1591,24 +1548,22 @@
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="10">
-        <v>1124</v>
+      <c r="B31" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
     </row>
@@ -1616,24 +1571,22 @@
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="10">
-        <v>1125</v>
+      <c r="B32" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
     </row>
@@ -1641,24 +1594,22 @@
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="10">
-        <v>1126</v>
+      <c r="B33" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="11"/>
     </row>
@@ -1666,24 +1617,22 @@
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="10">
-        <v>1127</v>
+      <c r="B34" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
     </row>
@@ -1691,24 +1640,22 @@
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="10">
-        <v>1128</v>
+      <c r="B35" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="11"/>
     </row>
@@ -1716,24 +1663,22 @@
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="10">
-        <v>1129</v>
+      <c r="B36" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="11"/>
     </row>
@@ -1741,24 +1686,22 @@
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="10">
-        <v>1130</v>
+      <c r="B37" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="11"/>
     </row>
@@ -1766,24 +1709,22 @@
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="10">
-        <v>1131</v>
+      <c r="B38" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="11"/>
     </row>
@@ -1791,24 +1732,22 @@
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="10">
-        <v>1132</v>
+      <c r="B39" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="11"/>
     </row>
@@ -1816,24 +1755,22 @@
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="10">
-        <v>1133</v>
+      <c r="B40" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="11"/>
     </row>
@@ -1841,24 +1778,22 @@
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="10">
-        <v>1134</v>
+      <c r="B41" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="11"/>
     </row>
@@ -1866,24 +1801,22 @@
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="10">
-        <v>1135</v>
+      <c r="B42" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="11"/>
     </row>
@@ -1891,24 +1824,22 @@
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="10">
-        <v>1136</v>
+      <c r="B43" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
     </row>
@@ -1916,24 +1847,22 @@
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="10">
-        <v>1137</v>
+      <c r="B44" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="11"/>
     </row>
@@ -1941,24 +1870,22 @@
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="10">
-        <v>1138</v>
+      <c r="B45" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="11"/>
     </row>
@@ -1966,24 +1893,22 @@
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="10">
-        <v>1139</v>
+      <c r="B46" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="11"/>
     </row>
@@ -1991,24 +1916,22 @@
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="10">
-        <v>1140</v>
+      <c r="B47" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="11"/>
     </row>
@@ -2016,24 +1939,22 @@
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="10">
-        <v>1141</v>
+      <c r="B48" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="11"/>
     </row>
@@ -2041,24 +1962,22 @@
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="10">
-        <v>1142</v>
+      <c r="B49" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="11"/>
     </row>
@@ -2066,24 +1985,22 @@
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="10">
-        <v>1143</v>
+      <c r="B50" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="11"/>
     </row>
@@ -2091,24 +2008,22 @@
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="10">
-        <v>1144</v>
+      <c r="B51" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="11"/>
     </row>
@@ -2116,24 +2031,22 @@
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="10">
-        <v>1145</v>
+      <c r="B52" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="11"/>
     </row>
@@ -2141,24 +2054,22 @@
       <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="10">
-        <v>1146</v>
+      <c r="B53" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="11"/>
     </row>
@@ -2166,24 +2077,22 @@
       <c r="A54" s="7">
         <v>51</v>
       </c>
-      <c r="B54" s="10">
-        <v>1147</v>
+      <c r="B54" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="11"/>
     </row>
@@ -2191,24 +2100,22 @@
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="10">
-        <v>1148</v>
+      <c r="B55" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="11"/>
     </row>
@@ -2216,24 +2123,22 @@
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="10">
-        <v>1149</v>
+      <c r="B56" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="11"/>
     </row>
@@ -2241,24 +2146,22 @@
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="10">
-        <v>1150</v>
+      <c r="B57" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="11"/>
     </row>
@@ -2266,24 +2169,22 @@
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="10">
-        <v>1151</v>
+      <c r="B58" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="11"/>
     </row>
@@ -2291,24 +2192,22 @@
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="10">
-        <v>1152</v>
+      <c r="B59" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
     </row>
@@ -2316,8 +2215,8 @@
       <c r="A60" s="7">
         <v>57</v>
       </c>
-      <c r="B60" s="10">
-        <v>1153</v>
+      <c r="B60" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>6</v>
@@ -2326,14 +2225,12 @@
         <v>7</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="11"/>
     </row>
@@ -2341,24 +2238,22 @@
       <c r="A61" s="7">
         <v>58</v>
       </c>
-      <c r="B61" s="10">
-        <v>1706</v>
+      <c r="B61" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
     </row>
@@ -2366,24 +2261,22 @@
       <c r="A62" s="7">
         <v>59</v>
       </c>
-      <c r="B62" s="10">
-        <v>1707</v>
+      <c r="B62" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
     </row>
@@ -2391,24 +2284,22 @@
       <c r="A63" s="7">
         <v>60</v>
       </c>
-      <c r="B63" s="10">
-        <v>1708</v>
+      <c r="B63" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="11"/>
     </row>
@@ -2416,24 +2307,22 @@
       <c r="A64" s="7">
         <v>61</v>
       </c>
-      <c r="B64" s="10">
-        <v>1709</v>
+      <c r="B64" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="11"/>
     </row>
@@ -2441,24 +2330,22 @@
       <c r="A65" s="7">
         <v>62</v>
       </c>
-      <c r="B65" s="10">
-        <v>1710</v>
+      <c r="B65" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="11"/>
     </row>
@@ -2466,24 +2353,22 @@
       <c r="A66" s="7">
         <v>63</v>
       </c>
-      <c r="B66" s="10">
-        <v>1711</v>
+      <c r="B66" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
     </row>
@@ -2491,24 +2376,22 @@
       <c r="A67" s="7">
         <v>64</v>
       </c>
-      <c r="B67" s="10">
-        <v>1712</v>
+      <c r="B67" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="11"/>
     </row>
@@ -2516,24 +2399,22 @@
       <c r="A68" s="7">
         <v>65</v>
       </c>
-      <c r="B68" s="10">
-        <v>1713</v>
+      <c r="B68" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="11"/>
     </row>
@@ -2541,24 +2422,22 @@
       <c r="A69" s="7">
         <v>66</v>
       </c>
-      <c r="B69" s="10">
-        <v>1714</v>
+      <c r="B69" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="11"/>
     </row>
@@ -2566,24 +2445,22 @@
       <c r="A70" s="7">
         <v>67</v>
       </c>
-      <c r="B70" s="10">
-        <v>1715</v>
+      <c r="B70" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="11"/>
     </row>
@@ -2591,24 +2468,22 @@
       <c r="A71" s="7">
         <v>68</v>
       </c>
-      <c r="B71" s="10">
-        <v>1716</v>
+      <c r="B71" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="11"/>
     </row>
@@ -2616,24 +2491,22 @@
       <c r="A72" s="7">
         <v>69</v>
       </c>
-      <c r="B72" s="10">
-        <v>1717</v>
+      <c r="B72" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="11"/>
     </row>
@@ -2641,24 +2514,22 @@
       <c r="A73" s="7">
         <v>70</v>
       </c>
-      <c r="B73" s="10">
-        <v>1718</v>
+      <c r="B73" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G73" s="10"/>
       <c r="H73" s="10"/>
       <c r="I73" s="11"/>
     </row>
@@ -2666,24 +2537,22 @@
       <c r="A74" s="7">
         <v>71</v>
       </c>
-      <c r="B74" s="10">
-        <v>1719</v>
+      <c r="B74" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="11"/>
     </row>
@@ -2691,24 +2560,22 @@
       <c r="A75" s="7">
         <v>72</v>
       </c>
-      <c r="B75" s="10">
-        <v>1720</v>
+      <c r="B75" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="11"/>
     </row>
@@ -2716,24 +2583,22 @@
       <c r="A76" s="7">
         <v>73</v>
       </c>
-      <c r="B76" s="10">
-        <v>1721</v>
+      <c r="B76" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="11"/>
     </row>
@@ -2741,8 +2606,8 @@
       <c r="A77" s="7">
         <v>74</v>
       </c>
-      <c r="B77" s="10">
-        <v>1722</v>
+      <c r="B77" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>6</v>
@@ -2751,14 +2616,12 @@
         <v>7</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="11"/>
     </row>
@@ -2766,24 +2629,22 @@
       <c r="A78" s="7">
         <v>75</v>
       </c>
-      <c r="B78" s="10">
-        <v>1723</v>
+      <c r="B78" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G78" s="10"/>
       <c r="H78" s="10"/>
       <c r="I78" s="11"/>
     </row>
@@ -2791,24 +2652,22 @@
       <c r="A79" s="7">
         <v>76</v>
       </c>
-      <c r="B79" s="10">
-        <v>1724</v>
+      <c r="B79" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="11"/>
     </row>
@@ -2816,24 +2675,22 @@
       <c r="A80" s="7">
         <v>77</v>
       </c>
-      <c r="B80" s="10">
-        <v>1725</v>
+      <c r="B80" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G80" s="10"/>
       <c r="H80" s="10"/>
       <c r="I80" s="11"/>
     </row>
@@ -2841,24 +2698,22 @@
       <c r="A81" s="7">
         <v>78</v>
       </c>
-      <c r="B81" s="10">
-        <v>1726</v>
+      <c r="B81" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="11"/>
     </row>
@@ -2866,24 +2721,22 @@
       <c r="A82" s="7">
         <v>79</v>
       </c>
-      <c r="B82" s="10">
-        <v>1727</v>
+      <c r="B82" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="11"/>
     </row>
@@ -2891,24 +2744,22 @@
       <c r="A83" s="7">
         <v>80</v>
       </c>
-      <c r="B83" s="10">
-        <v>1728</v>
+      <c r="B83" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="11"/>
     </row>
@@ -2916,24 +2767,22 @@
       <c r="A84" s="7">
         <v>81</v>
       </c>
-      <c r="B84" s="10">
-        <v>1729</v>
+      <c r="B84" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="11"/>
     </row>
@@ -2941,24 +2790,22 @@
       <c r="A85" s="7">
         <v>82</v>
       </c>
-      <c r="B85" s="10">
-        <v>1730</v>
+      <c r="B85" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G85" s="10"/>
       <c r="H85" s="10"/>
       <c r="I85" s="11"/>
     </row>
@@ -2966,24 +2813,22 @@
       <c r="A86" s="7">
         <v>83</v>
       </c>
-      <c r="B86" s="10">
-        <v>1731</v>
+      <c r="B86" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G86" s="10"/>
       <c r="H86" s="10"/>
       <c r="I86" s="11"/>
     </row>
@@ -2991,24 +2836,22 @@
       <c r="A87" s="7">
         <v>84</v>
       </c>
-      <c r="B87" s="10">
-        <v>1732</v>
+      <c r="B87" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="11"/>
     </row>
@@ -3016,24 +2859,22 @@
       <c r="A88" s="7">
         <v>85</v>
       </c>
-      <c r="B88" s="10">
-        <v>1733</v>
+      <c r="B88" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G88" s="10"/>
       <c r="H88" s="10"/>
       <c r="I88" s="11"/>
     </row>
@@ -3041,24 +2882,22 @@
       <c r="A89" s="7">
         <v>86</v>
       </c>
-      <c r="B89" s="10">
-        <v>1734</v>
+      <c r="B89" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G89" s="10"/>
       <c r="H89" s="10"/>
       <c r="I89" s="11"/>
     </row>
@@ -3066,24 +2905,22 @@
       <c r="A90" s="7">
         <v>87</v>
       </c>
-      <c r="B90" s="10">
-        <v>2208</v>
+      <c r="B90" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G90" s="10"/>
       <c r="H90" s="10"/>
       <c r="I90" s="11"/>
     </row>
@@ -3091,24 +2928,22 @@
       <c r="A91" s="7">
         <v>88</v>
       </c>
-      <c r="B91" s="10">
-        <v>2209</v>
+      <c r="B91" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G91" s="10"/>
       <c r="H91" s="10"/>
       <c r="I91" s="11"/>
     </row>
@@ -3116,24 +2951,22 @@
       <c r="A92" s="7">
         <v>89</v>
       </c>
-      <c r="B92" s="10">
-        <v>2210</v>
+      <c r="B92" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G92" s="10"/>
       <c r="H92" s="10"/>
       <c r="I92" s="11"/>
     </row>
@@ -3141,24 +2974,22 @@
       <c r="A93" s="7">
         <v>90</v>
       </c>
-      <c r="B93" s="10">
-        <v>2211</v>
+      <c r="B93" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G93" s="10"/>
       <c r="H93" s="10"/>
       <c r="I93" s="11"/>
     </row>
@@ -3166,24 +2997,22 @@
       <c r="A94" s="7">
         <v>91</v>
       </c>
-      <c r="B94" s="10">
-        <v>2212</v>
+      <c r="B94" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G94" s="10"/>
       <c r="H94" s="10"/>
       <c r="I94" s="11"/>
     </row>
@@ -3191,24 +3020,22 @@
       <c r="A95" s="7">
         <v>92</v>
       </c>
-      <c r="B95" s="10">
-        <v>2213</v>
+      <c r="B95" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G95" s="10"/>
       <c r="H95" s="10"/>
       <c r="I95" s="11"/>
     </row>
@@ -3216,24 +3043,22 @@
       <c r="A96" s="7">
         <v>93</v>
       </c>
-      <c r="B96" s="10">
-        <v>2214</v>
+      <c r="B96" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G96" s="10"/>
       <c r="H96" s="10"/>
       <c r="I96" s="11"/>
     </row>
@@ -3241,24 +3066,22 @@
       <c r="A97" s="7">
         <v>94</v>
       </c>
-      <c r="B97" s="10">
-        <v>2215</v>
+      <c r="B97" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="11"/>
     </row>
@@ -3266,24 +3089,22 @@
       <c r="A98" s="7">
         <v>95</v>
       </c>
-      <c r="B98" s="10">
-        <v>2216</v>
+      <c r="B98" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="11"/>
     </row>
@@ -3291,24 +3112,22 @@
       <c r="A99" s="7">
         <v>96</v>
       </c>
-      <c r="B99" s="10">
-        <v>2217</v>
+      <c r="B99" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G99" s="10"/>
       <c r="H99" s="10"/>
       <c r="I99" s="11"/>
     </row>
@@ -3316,24 +3135,22 @@
       <c r="A100" s="7">
         <v>97</v>
       </c>
-      <c r="B100" s="10">
-        <v>2218</v>
+      <c r="B100" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="11"/>
     </row>
@@ -3341,24 +3158,22 @@
       <c r="A101" s="7">
         <v>98</v>
       </c>
-      <c r="B101" s="10">
-        <v>2219</v>
+      <c r="B101" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G101" s="10"/>
       <c r="H101" s="10"/>
       <c r="I101" s="11"/>
     </row>
@@ -3366,24 +3181,22 @@
       <c r="A102" s="7">
         <v>99</v>
       </c>
-      <c r="B102" s="10">
-        <v>2220</v>
+      <c r="B102" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G102" s="10"/>
       <c r="H102" s="10"/>
       <c r="I102" s="11"/>
     </row>
@@ -3391,24 +3204,22 @@
       <c r="A103" s="7">
         <v>100</v>
       </c>
-      <c r="B103" s="10">
-        <v>2221</v>
+      <c r="B103" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="11"/>
     </row>
@@ -3416,24 +3227,22 @@
       <c r="A104" s="7">
         <v>101</v>
       </c>
-      <c r="B104" s="10">
-        <v>2222</v>
+      <c r="B104" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G104" s="10"/>
       <c r="H104" s="10"/>
       <c r="I104" s="11"/>
     </row>
@@ -3441,24 +3250,22 @@
       <c r="A105" s="7">
         <v>102</v>
       </c>
-      <c r="B105" s="10">
-        <v>2223</v>
+      <c r="B105" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G105" s="10"/>
       <c r="H105" s="10"/>
       <c r="I105" s="11"/>
     </row>
@@ -3466,24 +3273,22 @@
       <c r="A106" s="7">
         <v>103</v>
       </c>
-      <c r="B106" s="10">
-        <v>2224</v>
+      <c r="B106" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="11"/>
     </row>
@@ -3491,8 +3296,8 @@
       <c r="A107" s="7">
         <v>104</v>
       </c>
-      <c r="B107" s="10">
-        <v>2225</v>
+      <c r="B107" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>6</v>
@@ -3501,14 +3306,12 @@
         <v>7</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="11"/>
     </row>
@@ -3516,24 +3319,22 @@
       <c r="A108" s="7">
         <v>105</v>
       </c>
-      <c r="B108" s="10">
-        <v>2226</v>
+      <c r="B108" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G108" s="10"/>
       <c r="H108" s="10"/>
       <c r="I108" s="11"/>
     </row>
@@ -3541,24 +3342,22 @@
       <c r="A109" s="7">
         <v>106</v>
       </c>
-      <c r="B109" s="10">
-        <v>2227</v>
+      <c r="B109" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="11"/>
     </row>
@@ -3566,24 +3365,22 @@
       <c r="A110" s="7">
         <v>107</v>
       </c>
-      <c r="B110" s="10">
-        <v>2228</v>
+      <c r="B110" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="11"/>
     </row>
@@ -3591,24 +3388,22 @@
       <c r="A111" s="7">
         <v>108</v>
       </c>
-      <c r="B111" s="10">
-        <v>2229</v>
+      <c r="B111" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G111" s="10"/>
       <c r="H111" s="10"/>
       <c r="I111" s="11"/>
     </row>
@@ -3616,24 +3411,22 @@
       <c r="A112" s="7">
         <v>109</v>
       </c>
-      <c r="B112" s="10">
-        <v>2410</v>
+      <c r="B112" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G112" s="10"/>
       <c r="H112" s="10"/>
       <c r="I112" s="11"/>
     </row>
@@ -3641,24 +3434,22 @@
       <c r="A113" s="7">
         <v>110</v>
       </c>
-      <c r="B113" s="10">
-        <v>2411</v>
+      <c r="B113" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="11"/>
     </row>
@@ -3666,24 +3457,22 @@
       <c r="A114" s="7">
         <v>111</v>
       </c>
-      <c r="B114" s="10">
-        <v>2412</v>
+      <c r="B114" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G114" s="10"/>
       <c r="H114" s="10"/>
       <c r="I114" s="11"/>
     </row>
@@ -3691,24 +3480,22 @@
       <c r="A115" s="7">
         <v>112</v>
       </c>
-      <c r="B115" s="10">
-        <v>2413</v>
+      <c r="B115" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G115" s="10"/>
       <c r="H115" s="10"/>
       <c r="I115" s="11"/>
     </row>
@@ -3716,24 +3503,22 @@
       <c r="A116" s="7">
         <v>113</v>
       </c>
-      <c r="B116" s="10">
-        <v>2414</v>
+      <c r="B116" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G116" s="10"/>
       <c r="H116" s="10"/>
       <c r="I116" s="11"/>
     </row>
@@ -3741,24 +3526,22 @@
       <c r="A117" s="7">
         <v>114</v>
       </c>
-      <c r="B117" s="10">
-        <v>2415</v>
+      <c r="B117" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G117" s="10"/>
       <c r="H117" s="10"/>
       <c r="I117" s="11"/>
     </row>
@@ -3766,24 +3549,22 @@
       <c r="A118" s="7">
         <v>115</v>
       </c>
-      <c r="B118" s="10">
-        <v>2416</v>
+      <c r="B118" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G118" s="10"/>
       <c r="H118" s="10"/>
       <c r="I118" s="11"/>
     </row>
@@ -3791,24 +3572,22 @@
       <c r="A119" s="7">
         <v>116</v>
       </c>
-      <c r="B119" s="10">
-        <v>2417</v>
+      <c r="B119" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G119" s="10"/>
       <c r="H119" s="10"/>
       <c r="I119" s="11"/>
     </row>
@@ -3816,24 +3595,22 @@
       <c r="A120" s="7">
         <v>117</v>
       </c>
-      <c r="B120" s="10">
-        <v>2418</v>
+      <c r="B120" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G120" s="10"/>
       <c r="H120" s="10"/>
       <c r="I120" s="11"/>
     </row>
@@ -3841,24 +3618,22 @@
       <c r="A121" s="7">
         <v>118</v>
       </c>
-      <c r="B121" s="10">
-        <v>2419</v>
+      <c r="B121" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G121" s="10"/>
       <c r="H121" s="10"/>
       <c r="I121" s="11"/>
     </row>
@@ -3866,24 +3641,22 @@
       <c r="A122" s="7">
         <v>119</v>
       </c>
-      <c r="B122" s="10">
-        <v>2420</v>
+      <c r="B122" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G122" s="10"/>
       <c r="H122" s="10"/>
       <c r="I122" s="11"/>
     </row>
@@ -3891,24 +3664,22 @@
       <c r="A123" s="7">
         <v>120</v>
       </c>
-      <c r="B123" s="10">
-        <v>2619</v>
+      <c r="B123" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G123" s="10"/>
       <c r="H123" s="10"/>
       <c r="I123" s="11"/>
     </row>
@@ -3916,24 +3687,22 @@
       <c r="A124" s="7">
         <v>121</v>
       </c>
-      <c r="B124" s="10">
-        <v>2620</v>
+      <c r="B124" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="11"/>
     </row>
@@ -3941,24 +3710,22 @@
       <c r="A125" s="7">
         <v>122</v>
       </c>
-      <c r="B125" s="10">
-        <v>2621</v>
+      <c r="B125" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="11"/>
     </row>
@@ -3966,24 +3733,22 @@
       <c r="A126" s="7">
         <v>123</v>
       </c>
-      <c r="B126" s="10">
-        <v>2622</v>
+      <c r="B126" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="11"/>
     </row>
@@ -3991,24 +3756,22 @@
       <c r="A127" s="7">
         <v>124</v>
       </c>
-      <c r="B127" s="10">
-        <v>2623</v>
+      <c r="B127" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="11"/>
     </row>
@@ -4016,24 +3779,22 @@
       <c r="A128" s="7">
         <v>125</v>
       </c>
-      <c r="B128" s="10">
-        <v>2624</v>
+      <c r="B128" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="11"/>
     </row>
@@ -4041,24 +3802,22 @@
       <c r="A129" s="7">
         <v>126</v>
       </c>
-      <c r="B129" s="10">
-        <v>2625</v>
+      <c r="B129" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="11"/>
     </row>
@@ -4066,24 +3825,22 @@
       <c r="A130" s="7">
         <v>127</v>
       </c>
-      <c r="B130" s="10">
-        <v>2626</v>
+      <c r="B130" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="11"/>
     </row>
@@ -4091,24 +3848,22 @@
       <c r="A131" s="7">
         <v>128</v>
       </c>
-      <c r="B131" s="10">
-        <v>2627</v>
+      <c r="B131" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="11"/>
     </row>
@@ -4116,24 +3871,22 @@
       <c r="A132" s="7">
         <v>129</v>
       </c>
-      <c r="B132" s="10">
-        <v>2628</v>
+      <c r="B132" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="11"/>
     </row>
@@ -4141,24 +3894,22 @@
       <c r="A133" s="7">
         <v>130</v>
       </c>
-      <c r="B133" s="10">
-        <v>2629</v>
+      <c r="B133" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="11"/>
     </row>
@@ -4166,24 +3917,22 @@
       <c r="A134" s="7">
         <v>131</v>
       </c>
-      <c r="B134" s="10">
-        <v>2630</v>
+      <c r="B134" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="11"/>
     </row>
@@ -4191,24 +3940,22 @@
       <c r="A135" s="7">
         <v>132</v>
       </c>
-      <c r="B135" s="10">
-        <v>2631</v>
+      <c r="B135" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="11"/>
     </row>
@@ -4216,8 +3963,8 @@
       <c r="A136" s="7">
         <v>133</v>
       </c>
-      <c r="B136" s="10">
-        <v>2632</v>
+      <c r="B136" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>6</v>
@@ -4226,167 +3973,970 @@
         <v>7</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="11"/>
     </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="7">
+        <v>134</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="7">
+        <v>135</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="11"/>
+    </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B139" t="s">
+      <c r="A139" s="7">
+        <v>136</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="7">
+        <v>137</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="7">
+        <v>138</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="11"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="7">
+        <v>139</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="11"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="7">
+        <v>140</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="11"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="7">
+        <v>141</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="11"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="7">
+        <v>142</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="11"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="7">
+        <v>143</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="7">
+        <v>144</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="11"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="7">
+        <v>145</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="11"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="7">
+        <v>146</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="11"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="7">
+        <v>147</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="11"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="7">
+        <v>148</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="11"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="7">
+        <v>149</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="11"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="7">
+        <v>150</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="11"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="7">
+        <v>151</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="11"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="7">
+        <v>152</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E155" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="11"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156" s="7">
+        <v>153</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="11"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157" s="7">
+        <v>154</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="11"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158" s="7">
+        <v>155</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="11"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159" s="7">
+        <v>156</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160" s="7">
+        <v>157</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="11"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" s="7">
+        <v>158</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="11"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" s="7">
+        <v>159</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A163" s="7">
+        <v>160</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="11"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A164" s="7">
+        <v>161</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="11"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A165" s="7">
+        <v>162</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="11"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A166" s="7">
+        <v>163</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="11"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A167" s="7">
+        <v>164</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="11"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A168" s="7">
+        <v>165</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="11"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A169" s="7">
+        <v>166</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="11"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A170" s="7">
+        <v>167</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="11"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" s="7">
+        <v>168</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="11"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>86</v>
+      </c>
+      <c r="E174" t="s">
         <v>87</v>
       </c>
-      <c r="E139" t="s">
+      <c r="H174" t="s">
         <v>88</v>
       </c>
-      <c r="H139" t="s">
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B144" t="s">
+      <c r="E179" t="s">
+        <v>89</v>
+      </c>
+      <c r="H179" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
         <v>90</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E182" t="s">
         <v>90</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H182" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B147" t="s">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
         <v>91</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E184" t="s">
         <v>91</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H184" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B149" t="s">
+    <row r="189" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B189" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E149" t="s">
-        <v>92</v>
-      </c>
-      <c r="H149" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="154" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B154" s="2" t="s">
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B191" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B156" s="3" t="s">
+      <c r="C191" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B192" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H192" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B157" s="3" t="s">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B193" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H193" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B158" s="3" t="s">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B194" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C194" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H194" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B159" s="3" t="s">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B195" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H195" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B160" s="3" t="s">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B196" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H196" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B161" s="3" t="s">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B197" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H197" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B162" s="3" t="s">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B198" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B163" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4944,7 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H136 I4:I136" xr:uid="{178CCEF2-7D81-413F-86BB-11B071950098}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H171 I4:I171" xr:uid="{139B6AE6-F289-4E7A-8975-C60D8BEC4F99}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
